--- a/05 Test/STD0104 hentOmsætning.xlsx
+++ b/05 Test/STD0104 hentOmsætning.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruger\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruger\Documents\GitHub\HoeKulator\05 Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E4B5852-59FE-4B9A-B5E8-8CF51C884A80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{422FA2A4-3DC8-4F65-B10A-10BCEBB07797}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E7B0DDD7-8CD9-4843-BDFB-7E35B843C023}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>Id</t>
   </si>
@@ -80,37 +80,10 @@
     <t>ST010404</t>
   </si>
   <si>
-    <t>ST010405</t>
-  </si>
-  <si>
-    <t>fejl</t>
-  </si>
-  <si>
-    <t>negativ vareforbrug</t>
-  </si>
-  <si>
     <t>ST010406</t>
   </si>
   <si>
     <t>28408.5</t>
-  </si>
-  <si>
-    <t>ST010407</t>
-  </si>
-  <si>
-    <t>negativ salgspris</t>
-  </si>
-  <si>
-    <t>ST010408</t>
-  </si>
-  <si>
-    <t>negativ afsætning</t>
-  </si>
-  <si>
-    <t>ST010409</t>
-  </si>
-  <si>
-    <t>forkert datatype i afsætning</t>
   </si>
 </sst>
 </file>
@@ -500,7 +473,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -638,36 +611,22 @@
       <c r="E12" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="4">
-        <v>-1500</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
-      <c r="B15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="4">
-        <v>5600</v>
-      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="4"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>10</v>
@@ -679,7 +638,7 @@
         <v>8</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -694,86 +653,44 @@
       <c r="E18" s="2"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="4">
-        <v>-5.44</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
-      <c r="B21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="8">
-        <v>500</v>
-      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="8"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="4">
-        <v>5400</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
-      <c r="B24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="8">
-        <v>-1</v>
-      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="8"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="4">
-        <v>1000</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
-      <c r="B27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="4">
-        <v>2.4</v>
-      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="4"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
